--- a/tracking_info.xlsx
+++ b/tracking_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804139267623980</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,21 +483,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804050638892159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 17:20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,21 +511,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804279918116017</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-01 11:56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -531,21 +539,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804356308924572</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-01 10:39</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -555,21 +567,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804703307008923</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-29 10:36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,21 +595,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804134725934868</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-01 10:02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -603,21 +623,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804627902706278</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-01 11:46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -627,21 +651,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804546574778812</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-01 10:43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,21 +679,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804069138804302</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-02 16:04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -675,21 +707,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804886927521161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-02 12:28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -699,21 +735,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804141618693443</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-02 15:54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -723,21 +763,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804053551589434</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -747,21 +791,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804317552507348</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-02 16:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -771,21 +819,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804381748613816</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -795,21 +847,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804563925129581</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 12:22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -819,21 +875,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804206729602118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-02 17:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -846,18 +906,22 @@
           <t>9 Days</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804903481189542</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-02 13:03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -867,21 +931,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804486664172864</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-01 14:04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -891,21 +959,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804023574988477</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-02 11:47</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -915,21 +987,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804479449031586</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-02 15:55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -939,21 +1015,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804271319240889</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-02 12:12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -963,21 +1043,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804102569459113</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-02 14:15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -987,21 +1071,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804012877585179</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-02 14:06</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1011,21 +1099,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804558309893677</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-02 12:42</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1038,18 +1130,22 @@
           <t>8 Days</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1059,21 +1155,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1083,21 +1183,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1107,21 +1211,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1131,21 +1239,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1155,21 +1267,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1182,18 +1298,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1203,21 +1323,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1227,21 +1351,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1251,21 +1379,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1275,21 +1407,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804478933971377</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-06-26 11:41</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1299,21 +1435,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804098797110240</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 18:22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1323,21 +1463,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804024780530184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-29 09:48</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1347,21 +1491,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804030140604792</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-25 10:35</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1371,21 +1519,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>7 Days</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804593928113423</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-28 17:12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1395,21 +1547,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804496902309136</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-06-29 10:54</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1419,21 +1575,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804454306858902</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1443,21 +1603,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804194266619150</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-06-29 10:18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1467,21 +1631,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804543108703616</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-29 13:53</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1494,18 +1662,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804817635272397</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-02 17:02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1515,21 +1687,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804265812724083</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-29 12:31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1539,21 +1715,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804341710318156</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-01 13:30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1563,21 +1743,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804888761040839</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1590,18 +1774,22 @@
           <t>13 Days</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804920846561263</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-01 13:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1611,21 +1799,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804573540569518</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 16:18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1635,21 +1827,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804202022834003</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 14:10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1659,21 +1855,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804985484691987</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-02 15:37</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1683,21 +1883,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804946731230977</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-01 09:56</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1710,18 +1914,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804588677338319</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-01 14:27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1731,21 +1939,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804126503351110</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-01 13:16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1755,21 +1967,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804103251917812</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-01 10:49</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1779,21 +1995,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804823713510558</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1803,21 +2023,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804776397311693</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-01 09:33</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1830,18 +2054,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804244120450341</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-01 09:51</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1851,21 +2079,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804643163807059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-02 15:02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1875,21 +2107,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804344807849830</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-02 17:09</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1899,21 +2135,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804793459536962</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-02 11:28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1923,21 +2163,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1950,18 +2194,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1971,21 +2219,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1995,21 +2247,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2022,18 +2278,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2046,18 +2306,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2067,21 +2331,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2091,21 +2359,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2115,21 +2387,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2142,18 +2418,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2163,21 +2443,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2187,21 +2471,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2211,21 +2499,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2235,21 +2527,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10 Days</t>
+          <t>9 Days</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2259,21 +2555,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10 Days</t>
+          <t>11 Days</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2283,21 +2583,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2307,21 +2611,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>11 Days</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2331,21 +2639,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11 Days</t>
+          <t>13 Days</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2355,21 +2667,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10 Days</t>
+          <t>13 Days</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2383,17 +2699,21 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2403,21 +2723,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2427,21 +2751,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2455,17 +2783,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2475,21 +2807,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11 Days</t>
+          <t>9 Days</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2499,21 +2835,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>11 Days</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2523,21 +2863,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2547,21 +2891,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10 Days</t>
+          <t>11 Days</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2571,21 +2919,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10 Days</t>
+          <t>13 Days</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2595,21 +2947,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>8 Days</t>
+          <t>13 Days</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2619,21 +2975,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2643,11 +3003,15 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>11 Days</t>
+          <t>10 Days</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2671,7 +3035,11 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2695,7 +3063,11 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2719,7 +3091,11 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2743,7 +3119,11 @@
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2767,7 +3147,11 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2791,7 +3175,11 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2815,7 +3203,11 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2839,7 +3231,11 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2863,7 +3259,11 @@
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2887,17 +3287,21 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2907,21 +3311,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2931,21 +3339,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2958,18 +3370,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2979,21 +3395,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3003,21 +3423,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3027,21 +3451,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3051,21 +3479,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3078,18 +3510,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3099,21 +3535,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804139267623980</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3123,21 +3563,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804050638892159</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-02 17:20</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3147,21 +3591,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804279918116017</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-01 11:56</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3174,18 +3622,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804356308924572</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 10:39</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3198,18 +3650,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804703307008923</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-29 10:36</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3222,18 +3678,22 @@
           <t>8 Days</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804134725934868</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-01 10:02</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3243,21 +3703,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804627902706278</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-01 11:46</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3267,21 +3731,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804546574778812</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-01 10:43</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3294,18 +3762,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804069138804302</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 16:04</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3315,21 +3787,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804886927521161</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-02 12:28</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3342,18 +3818,22 @@
           <t>9 Days</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804141618693443</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-02 15:54</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3363,21 +3843,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804053551589434</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3387,21 +3871,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804317552507348</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-02 16:01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3411,21 +3899,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804381748613816</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3435,21 +3927,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804563925129581</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-02 12:22</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3459,21 +3955,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804206729602118</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-02 17:15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3483,21 +3983,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804903481189542</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-02 13:03</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3507,21 +4011,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804486664172864</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 14:04</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3534,18 +4042,22 @@
           <t>8 Days</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804023574988477</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-02 11:47</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3555,21 +4067,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804479449031586</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-02 15:55</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3579,21 +4095,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804271319240889</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-02 12:12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3603,21 +4123,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804102569459113</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 14:15</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3627,21 +4151,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804012877585179</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-02 14:06</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3651,21 +4179,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804558309893677</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-02 12:42</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3675,21 +4207,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3702,18 +4238,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3723,21 +4263,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3747,21 +4291,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3771,21 +4319,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3798,18 +4350,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3819,21 +4375,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3843,21 +4403,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3870,18 +4434,22 @@
           <t>13 Days</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3891,21 +4459,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3918,18 +4490,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804478933971377</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-06-26 11:41</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3939,21 +4515,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804098797110240</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-01 18:22</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3963,21 +4543,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804024780530184</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-29 09:48</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3990,18 +4574,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804030140604792</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-25 10:35</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4011,21 +4599,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>7 Days</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804593928113423</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-28 17:12</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4035,21 +4627,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804496902309136</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-29 10:54</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4059,21 +4655,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804454306858902</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4086,18 +4686,22 @@
           <t>13 Days</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804194266619150</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-06-29 10:18</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4107,21 +4711,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804543108703616</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-06-29 13:53</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4131,21 +4739,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804817635272397</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-02 17:02</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4155,21 +4767,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804265812724083</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-29 12:31</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4179,21 +4795,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804341710318156</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-01 13:30</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4203,21 +4823,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>92001903608804030140604792</t>
+          <t>92001903608804888761040839</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024-06-25 10:35</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4227,21 +4851,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7 Days</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>92001903608804593928113423</t>
+          <t>92001903608804920846561263</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024-06-28 17:12</t>
+          <t>2024-07-01 13:00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4251,21 +4879,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>92001903608804496902309136</t>
+          <t>92001903608804573540569518</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024-06-29 10:54</t>
+          <t>2024-07-01 16:18</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4275,21 +4907,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>92001903608804454306858902</t>
+          <t>92001903608804202022834003</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024-07-01 12:58</t>
+          <t>2024-07-01 14:10</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4299,21 +4935,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>92001903608804194266619150</t>
+          <t>92001903608804985484691987</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024-06-29 10:18</t>
+          <t>2024-07-02 15:37</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4323,21 +4963,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>92001903608804543108703616</t>
+          <t>92001903608804946731230977</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024-06-29 13:53</t>
+          <t>2024-07-01 09:56</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4350,18 +4994,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>92001903608804817635272397</t>
+          <t>92001903608804588677338319</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024-07-02 17:02</t>
+          <t>2024-07-01 14:27</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4371,21 +5019,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>92001903608804265812724083</t>
+          <t>92001903608804126503351110</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024-06-29 12:31</t>
+          <t>2024-07-01 13:16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4395,21 +5047,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>92001903608804341710318156</t>
+          <t>92001903608804103251917812</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024-07-01 13:30</t>
+          <t>2024-07-01 10:49</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4419,21 +5075,25 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>92001903608804888761040839</t>
+          <t>92001903608804823713510558</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024-07-02 15:01</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4443,21 +5103,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>92001903608804920846561263</t>
+          <t>92001903608804776397311693</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024-07-01 13:00</t>
+          <t>2024-07-01 09:33</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4467,21 +5131,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>92001903608804573540569518</t>
+          <t>92001903608804244120450341</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024-07-01 16:18</t>
+          <t>2024-07-01 09:51</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4491,21 +5159,25 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804643163807059</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-02 15:02</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4515,21 +5187,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804344807849830</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 17:09</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4539,21 +5215,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804793459536962</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-02 11:28</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4563,21 +5243,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804139267623980</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4590,18 +5274,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804050638892159</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-02 17:20</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4611,21 +5299,25 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804279918116017</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-01 11:56</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4635,21 +5327,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804356308924572</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-01 10:39</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4659,21 +5355,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804703307008923</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-29 10:36</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4683,21 +5383,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804134725934868</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-01 10:02</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4710,18 +5414,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804627902706278</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 11:46</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4734,18 +5442,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804546574778812</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 10:43</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4755,21 +5467,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804069138804302</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-02 16:04</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4779,21 +5495,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804886927521161</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-02 12:28</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4803,21 +5523,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>92001903608804030140604792</t>
+          <t>92001903608804141618693443</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024-06-25 10:35</t>
+          <t>2024-07-02 15:54</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4827,21 +5551,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>7 Days</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>92001903608804593928113423</t>
+          <t>92001903608804053551589434</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024-06-28 17:12</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4851,21 +5579,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>92001903608804496902309136</t>
+          <t>92001903608804317552507348</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024-06-29 10:54</t>
+          <t>2024-07-02 16:01</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4875,21 +5607,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>92001903608804454306858902</t>
+          <t>92001903608804381748613816</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024-07-01 12:58</t>
+          <t>2024-07-02 10:54</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4899,21 +5635,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>92001903608804194266619150</t>
+          <t>92001903608804563925129581</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024-06-29 10:18</t>
+          <t>2024-07-02 12:22</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4923,21 +5663,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>92001903608804543108703616</t>
+          <t>92001903608804206729602118</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024-06-29 13:53</t>
+          <t>2024-07-02 17:15</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4947,21 +5691,25 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>92001903608804817635272397</t>
+          <t>92001903608804903481189542</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024-07-02 17:02</t>
+          <t>2024-07-02 13:03</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4971,21 +5719,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>92001903608804265812724083</t>
+          <t>92001903608804486664172864</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024-06-29 12:31</t>
+          <t>2024-07-01 14:04</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4995,21 +5747,25 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>92001903608804341710318156</t>
+          <t>92001903608804023574988477</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024-07-01 13:30</t>
+          <t>2024-07-02 11:47</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5019,21 +5775,25 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>92001903608804888761040839</t>
+          <t>92001903608804479449031586</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024-07-02 15:01</t>
+          <t>2024-07-02 15:55</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5043,21 +5803,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>92001903608804920846561263</t>
+          <t>92001903608804271319240889</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024-07-01 13:00</t>
+          <t>2024-07-02 12:12</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5067,21 +5831,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>92001903608804573540569518</t>
+          <t>92001903608804102569459113</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024-07-01 16:18</t>
+          <t>2024-07-02 14:15</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5091,21 +5859,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804012877585179</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-02 14:06</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5115,21 +5887,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804558309893677</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-02 12:42</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5139,21 +5915,25 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804805960417187</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-06-28 16:12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5163,21 +5943,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804778447849910</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-06-28 14:43</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5187,21 +5971,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804459794479608</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-06-27 12:14</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5211,21 +5999,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+          <t>9 Days</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804960368872881</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-06-29 12:47</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5238,18 +6030,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804248433283184</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-06-28 15:50</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5259,21 +6055,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804186966522151</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-06-29 11:43</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5283,21 +6083,25 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804362438579742</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-01 13:13</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5307,21 +6111,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804498923837902</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 11:04</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5331,21 +6139,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804769923710732</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-06-28 11:28</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5355,21 +6167,25 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804958245632215</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-06-28 11:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5379,21 +6195,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804478933971377</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-06-26 11:41</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5403,21 +6223,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+          <t>8 Days</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>92001903608804030140604792</t>
+          <t>92001903608804098797110240</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024-06-25 10:35</t>
+          <t>2024-07-01 18:22</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5427,21 +6251,25 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>7 Days</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>92001903608804593928113423</t>
+          <t>92001903608804024780530184</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024-06-28 17:12</t>
+          <t>2024-06-29 09:48</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5451,21 +6279,25 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>92001903608804496902309136</t>
+          <t>92001903608804030140604792</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024-06-29 10:54</t>
+          <t>2024-06-25 10:35</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5475,21 +6307,25 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>7 Days</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>92001903608804454306858902</t>
+          <t>92001903608804593928113423</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024-07-01 12:58</t>
+          <t>2024-06-28 17:12</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5499,21 +6335,25 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>92001903608804194266619150</t>
+          <t>92001903608804496902309136</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024-06-29 10:18</t>
+          <t>2024-06-29 10:54</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5526,18 +6366,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>92001903608804543108703616</t>
+          <t>92001903608804454306858902</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024-06-29 13:53</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5547,21 +6391,25 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>92001903608804817635272397</t>
+          <t>92001903608804194266619150</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024-07-02 17:02</t>
+          <t>2024-06-29 10:18</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5571,21 +6419,25 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>92001903608804265812724083</t>
+          <t>92001903608804543108703616</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024-06-29 12:31</t>
+          <t>2024-06-29 13:53</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5595,21 +6447,25 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>92001903608804341710318156</t>
+          <t>92001903608804817635272397</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024-07-01 13:30</t>
+          <t>2024-07-02 17:02</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5619,21 +6475,25 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>92001903608804888761040839</t>
+          <t>92001903608804265812724083</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024-07-02 15:01</t>
+          <t>2024-06-29 12:31</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5643,21 +6503,25 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>92001903608804920846561263</t>
+          <t>92001903608804341710318156</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024-07-01 13:00</t>
+          <t>2024-07-01 13:30</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5670,18 +6534,22 @@
           <t>12 Days</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>92001903608804573540569518</t>
+          <t>92001903608804888761040839</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024-07-01 16:18</t>
+          <t>2024-07-02 15:01</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5691,21 +6559,25 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>13 Days</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>92001903608804805960417187</t>
+          <t>92001903608804920846561263</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024-06-28 16:12</t>
+          <t>2024-07-01 13:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5715,21 +6587,25 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>92001903608804778447849910</t>
+          <t>92001903608804573540569518</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024-06-28 14:43</t>
+          <t>2024-07-01 16:18</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5739,21 +6615,25 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>92001903608804459794479608</t>
+          <t>92001903608804202022834003</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024-06-27 12:14</t>
+          <t>2024-07-01 14:10</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5763,21 +6643,25 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>92001903608804960368872881</t>
+          <t>92001903608804985484691987</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024-06-29 12:47</t>
+          <t>2024-07-02 15:37</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5787,21 +6671,25 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
+          <t>12 Days</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>92001903608804248433283184</t>
+          <t>92001903608804946731230977</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024-06-28 15:50</t>
+          <t>2024-07-01 09:56</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5811,21 +6699,25 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>92001903608804186966522151</t>
+          <t>92001903608804588677338319</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024-06-29 11:43</t>
+          <t>2024-07-01 14:27</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5838,18 +6730,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>92001903608804362438579742</t>
+          <t>92001903608804126503351110</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024-07-01 13:13</t>
+          <t>2024-07-01 13:16</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5859,21 +6755,25 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>92001903608804498923837902</t>
+          <t>92001903608804103251917812</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024-07-01 11:04</t>
+          <t>2024-07-01 10:49</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5883,21 +6783,25 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>92001903608804769923710732</t>
+          <t>92001903608804823713510558</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024-06-28 11:28</t>
+          <t>2024-07-01 12:58</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5910,18 +6814,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>92001903608804958245632215</t>
+          <t>92001903608804776397311693</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024-06-28 11:00</t>
+          <t>2024-07-01 09:33</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5934,18 +6842,22 @@
           <t>10 Days</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>92001903608804478933971377</t>
+          <t>92001903608804244120450341</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024-06-26 11:41</t>
+          <t>2024-07-01 09:51</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5955,21 +6867,25 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
+          <t>10 Days</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>92001903608804098797110240</t>
+          <t>92001903608804643163807059</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024-07-01 18:22</t>
+          <t>2024-07-02 15:02</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5979,21 +6895,25 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>92001903608804024780530184</t>
+          <t>92001903608804344807849830</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024-06-29 09:48</t>
+          <t>2024-07-02 17:09</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6006,18 +6926,22 @@
           <t>11 Days</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>92001903608804030140604792</t>
+          <t>92001903608804793459536962</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024-06-25 10:35</t>
+          <t>2024-07-02 11:28</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6027,951 +6951,15 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7 Days</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
+          <t>11 Days</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:18</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>92001903608804593928113423</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2024-06-28 17:12</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>92001903608804496902309136</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2024-06-29 10:54</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>92001903608804454306858902</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2024-07-01 12:58</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>92001903608804194266619150</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2024-06-29 10:18</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>92001903608804543108703616</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2024-06-29 13:53</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>92001903608804817635272397</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2024-07-02 17:02</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>92001903608804265812724083</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2024-06-29 12:31</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>92001903608804341710318156</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2024-07-01 13:30</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>92001903608804888761040839</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2024-07-02 15:01</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>92001903608804920846561263</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2024-07-01 13:00</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>92001903608804573540569518</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2024-07-01 16:18</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>12 Days</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>92001903608804805960417187</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2024-06-28 16:12</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>92001903608804778447849910</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2024-06-28 14:43</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>92001903608804459794479608</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2024-06-27 12:14</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>92001903608804960368872881</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2024-06-29 12:47</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>92001903608804248433283184</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2024-06-28 15:50</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>92001903608804186966522151</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2024-06-29 11:43</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>92001903608804362438579742</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2024-07-01 13:13</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>92001903608804498923837902</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>2024-07-01 11:04</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>92001903608804769923710732</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2024-06-28 11:28</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>92001903608804958245632215</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2024-06-28 11:00</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>92001903608804478933971377</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2024-06-26 11:41</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>92001903608804098797110240</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2024-07-01 18:22</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>92001903608804024780530184</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>2024-06-29 09:48</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>92001903608804805960417187</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>2024-06-28 16:12</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>92001903608804778447849910</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2024-06-28 14:43</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>92001903608804459794479608</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2024-06-27 12:14</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>9 Days</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>92001903608804960368872881</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2024-06-29 12:47</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>92001903608804248433283184</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2024-06-28 15:50</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>92001903608804186966522151</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2024-06-29 11:43</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>92001903608804362438579742</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2024-07-01 13:13</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>92001903608804498923837902</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2024-07-01 11:04</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>92001903608804769923710732</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2024-06-28 11:28</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>92001903608804958245632215</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2024-06-28 11:00</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>10 Days</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>92001903608804478933971377</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2024-06-26 11:41</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>8 Days</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>92001903608804098797110240</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2024-07-01 18:22</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>13 Days</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>92001903608804024780530184</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2024-06-29 09:48</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>11 Days</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>2024-06-19 07:18</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
